--- a/home/Sample files/sample_timetable_with_teachers.xlsx
+++ b/home/Sample files/sample_timetable_with_teachers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -85,76 +85,49 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>Dr Shahbaz Majeed (1858)</t>
+  </si>
+  <si>
+    <t>Jaswinder Kaur (1897)</t>
+  </si>
+  <si>
+    <t>MR Palwinder Singh (1931)</t>
+  </si>
+  <si>
+    <t>Room A101</t>
+  </si>
+  <si>
+    <t>Room A102</t>
+  </si>
+  <si>
+    <t>Room A103</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Data Structures</t>
-  </si>
-  <si>
-    <t>Mr. Sharma</t>
-  </si>
-  <si>
-    <t>Mr. Arora</t>
-  </si>
-  <si>
-    <t>Room 101</t>
-  </si>
-  <si>
-    <t>Room 104</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Ms. Gupta</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Mr. Khan</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
-    <t>Dr. Verma</t>
-  </si>
-  <si>
-    <t>Ms. Batra</t>
-  </si>
-  <si>
-    <t>Lab 1</t>
-  </si>
-  <si>
-    <t>Room 105</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Coach Singh</t>
-  </si>
-  <si>
-    <t>Sports Ground</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -512,19 +485,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -600,117 +583,204 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="V2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3">
-        <v>2025</v>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/home/Sample files/sample_timetable_with_teachers.xlsx
+++ b/home/Sample files/sample_timetable_with_teachers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -85,39 +85,15 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>Dr Shahbaz Majeed (1858)</t>
-  </si>
-  <si>
     <t>Jaswinder Kaur (1897)</t>
   </si>
   <si>
-    <t>MR Palwinder Singh (1931)</t>
-  </si>
-  <si>
-    <t>Room A101</t>
-  </si>
-  <si>
-    <t>Room A102</t>
-  </si>
-  <si>
-    <t>Room A103</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -128,6 +104,27 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>Room A202</t>
+  </si>
+  <si>
+    <t>Room A203</t>
+  </si>
+  <si>
+    <t>Room A205</t>
+  </si>
+  <si>
+    <t>Room A302</t>
+  </si>
+  <si>
+    <t>Room A303</t>
+  </si>
+  <si>
+    <t>Room A305</t>
+  </si>
+  <si>
+    <t>Teacher</t>
   </si>
 </sst>
 </file>
@@ -487,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,6 +500,8 @@
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" customWidth="1"/>
@@ -582,205 +581,106 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="V2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
         <v>26</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3">
-        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="T4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>26</v>
-      </c>
       <c r="U4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="V4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
       <c r="V5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6">
-        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/home/Sample files/sample_timetable_with_teachers.xlsx
+++ b/home/Sample files/sample_timetable_with_teachers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:V4"/>
+      <selection activeCell="N6" sqref="N6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,6 +682,33 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6">
+        <v>2025</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/Sample files/sample_timetable_with_teachers.xlsx
+++ b/home/Sample files/sample_timetable_with_teachers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:V6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,6 +713,29 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
